--- a/bronze/excel/stg_flights.xlsx
+++ b/bronze/excel/stg_flights.xlsx
@@ -16,7 +16,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -616,6 +623,110 @@
           <t>Ireland</t>
         </is>
       </c>
+      <c r="D2" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.7505</v>
+      </c>
+      <c r="G2" t="n">
+        <v>42.8586</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8808.719999999999</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>195.46</v>
+      </c>
+      <c r="K2" t="n">
+        <v>344.43</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-5.53</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9334.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>FL8121</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>45833.64583333334</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>45833.70625</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>DFW</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>RT7502</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v>732</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Short-haul</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>87</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>7068.63</v>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>AC5682</t>
+        </is>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>45833</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -633,6 +744,110 @@
           <t>Finland</t>
         </is>
       </c>
+      <c r="D3" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.3622</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47.9995</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11582.4</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>233.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>201.36</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12184.38</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6030</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>FL7598</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>45833.65625</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>45834.35972222222</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>SFO</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>SIN</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>RT9374</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v>8446</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Long-haul</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>1013</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>30697.73</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>AC4686</t>
+        </is>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>45833</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -650,6 +865,114 @@
           <t>United States</t>
         </is>
       </c>
+      <c r="D4" s="2" t="n">
+        <v>45840.65449074074</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.3752</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41.6059</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10363.2</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>244.24</v>
+      </c>
+      <c r="K4" t="n">
+        <v>308.41</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10965.18</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2026</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>FL4736</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>45833.90625</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>45833.96666666667</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>DFW</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>RT7502</t>
+        </is>
+      </c>
+      <c r="X4" t="n">
+        <v>732</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Short-haul</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>87</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>crew</t>
+        </is>
+      </c>
+      <c r="AD4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7036.96</v>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>AC9250</t>
+        </is>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>45833</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -667,6 +990,110 @@
           <t>United States</t>
         </is>
       </c>
+      <c r="D5" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.9816</v>
+      </c>
+      <c r="G5" t="n">
+        <v>41.0431</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10058.4</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>254.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>273.48</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10629.9</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2056</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>FL1294</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>45833.17708333334</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>45833.38333333333</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v>2475</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v>297</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>9906.41</v>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>AC7459</t>
+        </is>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>45833</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -684,6 +1111,110 @@
           <t>Turkey</t>
         </is>
       </c>
+      <c r="D6" s="2" t="n">
+        <v>45840.65425925926</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45840.65425925926</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13.4854</v>
+      </c>
+      <c r="G6" t="n">
+        <v>51.8425</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9753.6</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>254.07</v>
+      </c>
+      <c r="K6" t="n">
+        <v>318.69</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10271.76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2263</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>FL2792</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>45833.51041666666</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>45833.8125</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>CDG</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>RT6259</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>3625</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Long-haul</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
+        <v>435</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17920.6</v>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>AC4266</t>
+        </is>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>45833</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -701,6 +1232,114 @@
           <t>Spain</t>
         </is>
       </c>
+      <c r="D7" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-6.2319</v>
+      </c>
+      <c r="G7" t="n">
+        <v>37.9763</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10972.8</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>250.96</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47.91</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11643.36</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4456</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>FL6133</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>45833.51041666666</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>45833.71666666667</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>2475</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
+        <v>297</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="AD7" t="n">
+        <v>58</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>9785.889999999999</v>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>AC7421</t>
+        </is>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>45833</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -718,6 +1357,110 @@
           <t>Malta</t>
         </is>
       </c>
+      <c r="D8" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11.4803</v>
+      </c>
+      <c r="G8" t="n">
+        <v>53.0058</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7452.36</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>226.36</v>
+      </c>
+      <c r="K8" t="n">
+        <v>323.13</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-7.15</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7886.7</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6631</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>FL3865</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>45833.23958333334</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>45833.44583333333</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>2475</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA8" t="n">
+        <v>297</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>9447.120000000001</v>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>AC9894</t>
+        </is>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>45833</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -735,6 +1478,110 @@
           <t>Lithuania</t>
         </is>
       </c>
+      <c r="D9" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.8253</v>
+      </c>
+      <c r="G9" t="n">
+        <v>49.4683</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10972.8</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>234.43</v>
+      </c>
+      <c r="K9" t="n">
+        <v>303.27</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11574.78</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>FL3708</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>45833.86458333334</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>45834.16666666666</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>CDG</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>RT6259</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>3625</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Long-haul</t>
+        </is>
+      </c>
+      <c r="AA9" t="n">
+        <v>435</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17854.9</v>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>AC8469</t>
+        </is>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>45833</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -752,6 +1599,102 @@
           <t>Bulgaria</t>
         </is>
       </c>
+      <c r="D10" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.2068</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43.6499</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>44.24</v>
+      </c>
+      <c r="K10" t="n">
+        <v>45</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>FL8118</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>45834.64583333334</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>45834.79930555556</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>SFO</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>RT5358</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>1846</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA10" t="n">
+        <v>221</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>8231.5</v>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>AC9894</t>
+        </is>
+      </c>
+      <c r="AG10" s="3" t="n">
+        <v>45834</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -769,6 +1712,110 @@
           <t>United Kingdom</t>
         </is>
       </c>
+      <c r="D11" s="2" t="n">
+        <v>45840.65425925926</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45840.65425925926</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.9392</v>
+      </c>
+      <c r="G11" t="n">
+        <v>51.4605</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2461.26</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>134.77</v>
+      </c>
+      <c r="K11" t="n">
+        <v>285.04</v>
+      </c>
+      <c r="L11" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2590.8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7636</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>FL9475</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>45834.69791666666</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>45834.78263888889</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>RT6565</t>
+        </is>
+      </c>
+      <c r="X11" t="n">
+        <v>1024</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA11" t="n">
+        <v>122</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>7723.87</v>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>AC2808</t>
+        </is>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>45834</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -786,6 +1833,110 @@
           <t>Germany</t>
         </is>
       </c>
+      <c r="D12" s="2" t="n">
+        <v>45840.65261574074</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45840.65261574074</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.816599999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>51.3397</v>
+      </c>
+      <c r="H12" t="n">
+        <v>396.24</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="K12" t="n">
+        <v>153.43</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>502.92</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>FL3108</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="n">
+        <v>45834.42708333334</v>
+      </c>
+      <c r="T12" s="2" t="n">
+        <v>45834.53125</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>RT6474</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
+        <v>1258</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7307.48</v>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>AC9250</t>
+        </is>
+      </c>
+      <c r="AG12" s="3" t="n">
+        <v>45834</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -803,6 +1954,110 @@
           <t>Germany</t>
         </is>
       </c>
+      <c r="D13" s="2" t="n">
+        <v>45840.65091435185</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45840.65091435185</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-9.802199999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>36.2366</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9448.799999999999</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>249.69</v>
+      </c>
+      <c r="K13" t="n">
+        <v>213.66</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10027.92</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3360</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>FL1344</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>45834.40625</v>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>45834.51041666666</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>RT6474</t>
+        </is>
+      </c>
+      <c r="X13" t="n">
+        <v>1258</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>7924.51</v>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>AC7459</t>
+        </is>
+      </c>
+      <c r="AG13" s="3" t="n">
+        <v>45834</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -820,6 +2075,108 @@
           <t>Israel</t>
         </is>
       </c>
+      <c r="D14" s="2" t="n">
+        <v>45840.65446759259</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16.7807</v>
+      </c>
+      <c r="G14" t="n">
+        <v>43.9774</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10972.8</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>224.85</v>
+      </c>
+      <c r="K14" t="n">
+        <v>286.07</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11567.16</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>FL5675</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="n">
+        <v>45834.38541666666</v>
+      </c>
+      <c r="T14" s="2" t="n">
+        <v>45834.6875</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>CDG</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>RT6259</t>
+        </is>
+      </c>
+      <c r="X14" t="n">
+        <v>3625</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Long-haul</t>
+        </is>
+      </c>
+      <c r="AA14" t="n">
+        <v>435</v>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>18545.78</v>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>AC2907</t>
+        </is>
+      </c>
+      <c r="AG14" s="3" t="n">
+        <v>45834</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -837,6 +2194,114 @@
           <t>Malta</t>
         </is>
       </c>
+      <c r="D15" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-5.1327</v>
+      </c>
+      <c r="G15" t="n">
+        <v>45.4476</v>
+      </c>
+      <c r="H15" t="n">
+        <v>11582.4</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>262.51</v>
+      </c>
+      <c r="K15" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12100.56</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2232</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>FL7466</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="n">
+        <v>45834.5625</v>
+      </c>
+      <c r="T15" s="2" t="n">
+        <v>45834.71597222222</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>SFO</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>RT5358</t>
+        </is>
+      </c>
+      <c r="X15" t="n">
+        <v>1846</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA15" t="n">
+        <v>221</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="AD15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>9378.610000000001</v>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>AC9250</t>
+        </is>
+      </c>
+      <c r="AG15" s="3" t="n">
+        <v>45834</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -854,6 +2319,110 @@
           <t>Poland</t>
         </is>
       </c>
+      <c r="D16" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.296</v>
+      </c>
+      <c r="G16" t="n">
+        <v>51.5035</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4785.36</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>177.18</v>
+      </c>
+      <c r="K16" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-6.83</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4975.86</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7452</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>FL6369</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="n">
+        <v>45834.55208333334</v>
+      </c>
+      <c r="T16" s="2" t="n">
+        <v>45834.70555555556</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>SFO</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>RT5358</t>
+        </is>
+      </c>
+      <c r="X16" t="n">
+        <v>1846</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA16" t="n">
+        <v>221</v>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>9357.5</v>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>AC9250</t>
+        </is>
+      </c>
+      <c r="AG16" s="3" t="n">
+        <v>45834</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -871,6 +2440,110 @@
           <t>Latvia</t>
         </is>
       </c>
+      <c r="D17" s="2" t="n">
+        <v>45840.65449074074</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45840.65449074074</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-3.3587</v>
+      </c>
+      <c r="G17" t="n">
+        <v>55.9547</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-7.62</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>67.84999999999999</v>
+      </c>
+      <c r="K17" t="n">
+        <v>238.96</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-3.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>614</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>FL6970</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="n">
+        <v>45834.22916666666</v>
+      </c>
+      <c r="T17" s="2" t="n">
+        <v>45834.93263888889</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>SFO</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>SIN</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>RT9374</t>
+        </is>
+      </c>
+      <c r="X17" t="n">
+        <v>8446</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Long-haul</t>
+        </is>
+      </c>
+      <c r="AA17" t="n">
+        <v>1013</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>31282.13</v>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>AC4674</t>
+        </is>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>45834</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -888,6 +2561,110 @@
           <t>Ireland</t>
         </is>
       </c>
+      <c r="D18" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.4508</v>
+      </c>
+      <c r="G18" t="n">
+        <v>39.2413</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6621.78</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>178.45</v>
+      </c>
+      <c r="K18" t="n">
+        <v>230.85</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-5.53</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7048.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>642</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>FL5986</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="n">
+        <v>45834.85416666666</v>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>45834.93888888889</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>RT6565</t>
+        </is>
+      </c>
+      <c r="X18" t="n">
+        <v>1024</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA18" t="n">
+        <v>122</v>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>6964.3</v>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>AC9894</t>
+        </is>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>45834</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -905,6 +2682,114 @@
           <t>United Kingdom</t>
         </is>
       </c>
+      <c r="D19" s="2" t="n">
+        <v>45840.65425925926</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45840.65425925926</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.0181</v>
+      </c>
+      <c r="G19" t="n">
+        <v>48.3248</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10660.38</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>153.89</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>11201.4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6321</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>FL5388</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="n">
+        <v>45835.625</v>
+      </c>
+      <c r="T19" s="2" t="n">
+        <v>45835.77847222222</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>SFO</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>RT5358</t>
+        </is>
+      </c>
+      <c r="X19" t="n">
+        <v>1846</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA19" t="n">
+        <v>221</v>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="AD19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>9036.57</v>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>AC7432</t>
+        </is>
+      </c>
+      <c r="AG19" s="3" t="n">
+        <v>45835</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -922,6 +2807,104 @@
           <t>United Kingdom</t>
         </is>
       </c>
+      <c r="D20" s="2" t="n">
+        <v>45840.65204861111</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45840.65204861111</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.4668</v>
+      </c>
+      <c r="G20" t="n">
+        <v>51.4653</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="K20" t="n">
+        <v>289.69</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>7522</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>FL5997</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="n">
+        <v>45835.69791666666</v>
+      </c>
+      <c r="T20" s="2" t="n">
+        <v>45835.90416666667</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="X20" t="n">
+        <v>2475</v>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA20" t="n">
+        <v>297</v>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>9504.01</v>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>AC7608</t>
+        </is>
+      </c>
+      <c r="AG20" s="3" t="n">
+        <v>45835</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -939,6 +2922,110 @@
           <t>India</t>
         </is>
       </c>
+      <c r="D21" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13.7265</v>
+      </c>
+      <c r="G21" t="n">
+        <v>58.2697</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7010.4</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>245.01</v>
+      </c>
+      <c r="K21" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7277.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2524</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>FL1013</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="n">
+        <v>45835.3125</v>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>45835.61458333334</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>CDG</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>RT6259</t>
+        </is>
+      </c>
+      <c r="X21" t="n">
+        <v>3625</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Long-haul</t>
+        </is>
+      </c>
+      <c r="AA21" t="n">
+        <v>435</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>16922.66</v>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>AC4709</t>
+        </is>
+      </c>
+      <c r="AG21" s="3" t="n">
+        <v>45835</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -956,6 +3043,114 @@
           <t>Germany</t>
         </is>
       </c>
+      <c r="D22" s="2" t="n">
+        <v>45840.65425925926</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45840.65425925926</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14.9094</v>
+      </c>
+      <c r="G22" t="n">
+        <v>45.7366</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10058.4</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="K22" t="n">
+        <v>156.87</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>10629.9</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>FL8093</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="n">
+        <v>45835.17708333334</v>
+      </c>
+      <c r="T22" s="2" t="n">
+        <v>45835.33055555556</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>SFO</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>RT5358</t>
+        </is>
+      </c>
+      <c r="X22" t="n">
+        <v>1846</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA22" t="n">
+        <v>221</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
+        <v>89</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>8751.33</v>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>AC7459</t>
+        </is>
+      </c>
+      <c r="AG22" s="3" t="n">
+        <v>45835</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -973,6 +3168,110 @@
           <t>Ireland</t>
         </is>
       </c>
+      <c r="D23" s="2" t="n">
+        <v>45840.65425925926</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45840.65425925926</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.3946</v>
+      </c>
+      <c r="G23" t="n">
+        <v>40.7252</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10157.46</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>221.92</v>
+      </c>
+      <c r="K23" t="n">
+        <v>338.37</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10744.2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5334</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>FL5544</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="n">
+        <v>45835.60416666666</v>
+      </c>
+      <c r="T23" s="2" t="n">
+        <v>45835.81041666667</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="X23" t="n">
+        <v>2475</v>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA23" t="n">
+        <v>297</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>9625.57</v>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>AC7608</t>
+        </is>
+      </c>
+      <c r="AG23" s="3" t="n">
+        <v>45835</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -990,6 +3289,110 @@
           <t>Qatar</t>
         </is>
       </c>
+      <c r="D24" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17.8613</v>
+      </c>
+      <c r="G24" t="n">
+        <v>48.4605</v>
+      </c>
+      <c r="H24" t="n">
+        <v>12489.18</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>262.35</v>
+      </c>
+      <c r="K24" t="n">
+        <v>122.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13136.88</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5213</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>FL5689</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>45835.27083333334</v>
+      </c>
+      <c r="T24" s="2" t="n">
+        <v>45835.35555555556</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>RT6565</t>
+        </is>
+      </c>
+      <c r="X24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA24" t="n">
+        <v>122</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>7315.79</v>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>AC5682</t>
+        </is>
+      </c>
+      <c r="AG24" s="3" t="n">
+        <v>45835</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1007,6 +3410,108 @@
           <t>Greece</t>
         </is>
       </c>
+      <c r="D25" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24.0229</v>
+      </c>
+      <c r="G25" t="n">
+        <v>38.0119</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1424.94</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>105.14</v>
+      </c>
+      <c r="K25" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="L25" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1539.24</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>FL4242</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="n">
+        <v>45835.65625</v>
+      </c>
+      <c r="T25" s="2" t="n">
+        <v>45835.71666666667</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>DFW</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>RT7502</t>
+        </is>
+      </c>
+      <c r="X25" t="n">
+        <v>732</v>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Short-haul</t>
+        </is>
+      </c>
+      <c r="AA25" t="n">
+        <v>87</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>6995.56</v>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>AC7459</t>
+        </is>
+      </c>
+      <c r="AG25" s="3" t="n">
+        <v>45835</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1023,6 +3528,114 @@
         <is>
           <t>United Kingdom</t>
         </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45840.65450231481</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.5787</v>
+      </c>
+      <c r="G26" t="n">
+        <v>48.9961</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10683.24</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>238.92</v>
+      </c>
+      <c r="K26" t="n">
+        <v>99.54000000000001</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="M26" t="n">
+        <v>11254.74</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7506</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>FL7875</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="n">
+        <v>45835.20833333334</v>
+      </c>
+      <c r="T26" s="2" t="n">
+        <v>45835.41458333333</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="X26" t="n">
+        <v>2475</v>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="AA26" t="n">
+        <v>297</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>crew</t>
+        </is>
+      </c>
+      <c r="AD26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>9419.91</v>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>AC9250</t>
+        </is>
+      </c>
+      <c r="AG26" s="3" t="n">
+        <v>45835</v>
       </c>
     </row>
   </sheetData>
